--- a/reg/gap.xlsx
+++ b/reg/gap.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t xml:space="preserve">part</t>
   </si>
@@ -44,205 +44,328 @@
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">4.384+</t>
+    <t xml:space="preserve">8.238**</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">4.607***</t>
+    <t xml:space="preserve">9.387***</t>
   </si>
   <si>
     <t xml:space="preserve">std.error</t>
   </si>
   <si>
-    <t xml:space="preserve">(2.154)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.206)</t>
+    <t xml:space="preserve">(2.752)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.319)</t>
   </si>
   <si>
     <t xml:space="preserve">LIDSD_INST</t>
   </si>
   <si>
-    <t xml:space="preserve">0.551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.548</t>
+    <t xml:space="preserve">-1.127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.646***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.774*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.664)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.814)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.198)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.785)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_INFRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.021*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.986***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.923**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.424)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.507)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.050)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.350)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_ICT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.184***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.128***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.363)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.126)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.039)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.036)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_SKILLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.512***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.455***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.906)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.171)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.108)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.057)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_LABOUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.747)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.300)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.088)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.038)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_MARKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.121***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.138)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.049)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_BUSINESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.519***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.243***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.395)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.252)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.046)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.083)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIDSD_INNOVATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.406</t>
   </si>
   <si>
     <t xml:space="preserve">0.408*</t>
   </si>
   <si>
-    <t xml:space="preserve">0.373***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.730)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.284)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.167)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.099)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDSD_LABOUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.439+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.470***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.662***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.757)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.052)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.072)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.136)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIDSD_BUSINESS</t>
+    <t xml:space="preserve">0.475***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.526***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.264)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.031)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lGRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.052*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.050+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.214)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.025)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.030)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.237***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.188)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.184)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.162)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lbudget</t>
   </si>
   <si>
     <t xml:space="preserve">0.313</t>
   </si>
   <si>
-    <t xml:space="preserve">1.682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.369***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.107***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.285)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.317)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.027)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.380)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lGRP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.144***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.136***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.195)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.033)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.018)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.029)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lpop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.043+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.275)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.264)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.026)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.243)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lbudget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.599+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.480***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.409+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.299)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.280)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.221)</t>
+    <t xml:space="preserve">0.305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.182***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.324)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.081)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.060)</t>
   </si>
   <si>
     <t xml:space="preserve">ltot</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.130***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.234***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.152)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.024)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.015)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.035)</t>
+    <t xml:space="preserve">-0.076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.118)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.101)</t>
   </si>
   <si>
     <t xml:space="preserve">gof</t>
@@ -257,25 +380,25 @@
     <t xml:space="preserve">R2</t>
   </si>
   <si>
-    <t xml:space="preserve">0.138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.200</t>
+    <t xml:space="preserve">0.444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.519</t>
   </si>
   <si>
     <t xml:space="preserve">R2 Within</t>
   </si>
   <si>
-    <t xml:space="preserve">0.183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.197</t>
+    <t xml:space="preserve">0.452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.517</t>
   </si>
 </sst>
 </file>
@@ -828,13 +951,13 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -848,16 +971,16 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -865,22 +988,22 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -888,22 +1011,22 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -911,22 +1034,22 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -934,22 +1057,22 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
@@ -957,22 +1080,22 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -980,91 +1103,321 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
         <v>11</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="E20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>87</v>
+      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
